--- a/graduate-thesis/figures/chpter1.xlsx
+++ b/graduate-thesis/figures/chpter1.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Graduation_Thesis\figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\graduate-thesis\graduate-thesis\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D877493F-A7E2-45CC-A388-16A7025EDF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BEF2987-5CCD-4478-B91C-D64E267B90F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>年份</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +42,58 @@
   </si>
   <si>
     <t>包含高风险漏洞的代码库的百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空航天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子商务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含开源代码的代码库占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码库中开源代码的占比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟现实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗保健</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +200,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="346472"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -156,10 +210,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -174,16 +228,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>92</c:v>
                 </c:pt>
@@ -198,13 +255,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BEB3-4146-AAAA-C1C4952AEF05}"/>
+              <c16:uniqueId val="{00000001-A428-4F19-8337-2D9B8D33FBD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -224,7 +284,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FCBD1A"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -234,10 +294,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -252,16 +312,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -275,6 +338,9 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
@@ -282,7 +348,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BEB3-4146-AAAA-C1C4952AEF05}"/>
+              <c16:uniqueId val="{00000002-A428-4F19-8337-2D9B8D33FBD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -302,7 +368,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BD3C30"/>
+              <a:schemeClr val="accent4"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -312,10 +378,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2018</c:v>
                 </c:pt>
@@ -330,16 +396,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:f>Sheet1!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
                 </c:pt>
@@ -354,13 +423,16 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BEB3-4146-AAAA-C1C4952AEF05}"/>
+              <c16:uniqueId val="{00000003-A428-4F19-8337-2D9B8D33FBD5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -374,8 +446,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2046203407"/>
-        <c:axId val="104791231"/>
+        <c:axId val="1439074991"/>
+        <c:axId val="1439072591"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -414,13 +486,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2018</c:v>
                       </c:pt>
@@ -436,6 +508,9 @@
                       <c:pt idx="4">
                         <c:v>2022</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2023</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -444,13 +519,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2:$A$6</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2:$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="6"/>
                       <c:pt idx="0">
                         <c:v>2018</c:v>
                       </c:pt>
@@ -466,12 +541,15 @@
                       <c:pt idx="4">
                         <c:v>2022</c:v>
                       </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2023</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-BEB3-4146-AAAA-C1C4952AEF05}"/>
+                    <c16:uniqueId val="{00000000-A428-4F19-8337-2D9B8D33FBD5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -480,13 +558,13 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046203407"/>
+        <c:axId val="1439074991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -523,7 +601,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104791231"/>
+        <c:crossAx val="1439072591"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -531,10 +609,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="104791231"/>
+        <c:axId val="1439072591"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -583,10 +660,9 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2046203407"/>
+        <c:crossAx val="1439074991"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -620,6 +696,883 @@
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>包含开源代码的代码库占比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>航空航天</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>互联网</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>物联网</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>制造业</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>电子商务</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F338-4FE9-8F53-47DC51457733}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>代码库中开源代码的占比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>航空航天</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>互联网</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>物联网</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>制造业</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>电子商务</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F338-4FE9-8F53-47DC51457733}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="68132191"/>
+        <c:axId val="68133151"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="68132191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68133151"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="68133151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="68132191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>包含开源代码的代码库占比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>虚拟现实</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>大数据</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>网络安全</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>清洁能源</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>医疗保健</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6AD-4A49-9FB2-1EAA104F3BE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>代码库中开源代码的占比</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>虚拟现实</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>大数据</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>网络安全</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>清洁能源</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>医疗保健</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A6AD-4A49-9FB2-1EAA104F3BE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="117967199"/>
+        <c:axId val="117967679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="117967199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117967679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117967679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117967199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
@@ -711,6 +1664,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1214,7 +2247,1099 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969C4F4E-4294-54AE-330A-B9285FC81AB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>652462</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76DCE1A0-B155-00DC-AD21-C13C7AD395C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1234,7 +3359,7 @@
         <xdr:cNvPr id="2" name="图表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C220D7-6754-BD2E-7C58-1C4CF97F1A10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7E0552-9A69-17A7-90C4-3AE909C3ABD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1518,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1610,6 +3735,190 @@
         <v>48</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7">
+        <v>96</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2189A5D4-F97B-483D-BCC1-9F659C2E3AB8}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426D44BF-6154-4D00-A520-586D8A03F298}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>97</v>
+      </c>
+      <c r="C2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+      <c r="C3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
